--- a/forecast_summary_B08KGVH7YC.xlsx
+++ b/forecast_summary_B08KGVH7YC.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>120.8814823456034</v>
       </c>
       <c r="D2" t="n">
-        <v>226.2913465650317</v>
+        <v>226.6046665193304</v>
       </c>
       <c r="E2" t="n">
         <v>227</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B550 AORUS ELITE AX V2</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -518,13 +526,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" t="n">
         <v>79.71518185594266</v>
       </c>
       <c r="D3" t="n">
-        <v>183.4247878826217</v>
+        <v>181.3113884016094</v>
       </c>
       <c r="E3" t="n">
         <v>133</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B550 AORUS ELITE AX V2</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -554,13 +565,13 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C4" t="n">
         <v>86.66228610025897</v>
       </c>
       <c r="D4" t="n">
-        <v>191.9109277244647</v>
+        <v>197.4504103428243</v>
       </c>
       <c r="E4" t="n">
         <v>163</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B550 AORUS ELITE AX V2</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +604,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C5" t="n">
         <v>95.78808759788836</v>
       </c>
       <c r="D5" t="n">
-        <v>194.3825500974597</v>
+        <v>204.2963396701771</v>
       </c>
       <c r="E5" t="n">
         <v>115</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B550 AORUS ELITE AX V2</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,13 +643,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C6" t="n">
         <v>77.33664257995262</v>
       </c>
       <c r="D6" t="n">
-        <v>195.8674680730879</v>
+        <v>189.6593116085135</v>
       </c>
       <c r="E6" t="n">
         <v>115</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B550 AORUS ELITE AX V2</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>47.36097978197044</v>
       </c>
       <c r="D7" t="n">
-        <v>152.7355526055977</v>
+        <v>152.9422425500078</v>
       </c>
       <c r="E7" t="n">
         <v>119</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B550 AORUS ELITE AX V2</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>38.88227386586578</v>
       </c>
       <c r="D8" t="n">
-        <v>143.154612597354</v>
+        <v>144.2479869045244</v>
       </c>
       <c r="E8" t="n">
         <v>119</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B550 AORUS ELITE AX V2</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,13 +760,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C9" t="n">
         <v>58.5932398091933</v>
       </c>
       <c r="D9" t="n">
-        <v>162.9247976970989</v>
+        <v>168.3321419709511</v>
       </c>
       <c r="E9" t="n">
         <v>117</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B550 AORUS ELITE AX V2</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -770,13 +799,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C10" t="n">
         <v>81.62897483874114</v>
       </c>
       <c r="D10" t="n">
-        <v>183.3187293712635</v>
+        <v>186.0125070380693</v>
       </c>
       <c r="E10" t="n">
         <v>121</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B550 AORUS ELITE AX V2</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -806,13 +838,13 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C11" t="n">
         <v>84.02942612997295</v>
       </c>
       <c r="D11" t="n">
-        <v>188.7392364386607</v>
+        <v>190.5851612867972</v>
       </c>
       <c r="E11" t="n">
         <v>146</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B550 AORUS ELITE AX V2</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -842,13 +877,13 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C12" t="n">
         <v>68.94438224226923</v>
       </c>
       <c r="D12" t="n">
-        <v>181.8787595860347</v>
+        <v>175.5803466062919</v>
       </c>
       <c r="E12" t="n">
         <v>151</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B550 AORUS ELITE AX V2</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -878,13 +916,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" t="n">
         <v>57.35884094991852</v>
       </c>
       <c r="D13" t="n">
-        <v>173.8251685731892</v>
+        <v>172.6507537268025</v>
       </c>
       <c r="E13" t="n">
         <v>149</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B550 AORUS ELITE AX V2</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>60.40527576543864</v>
       </c>
       <c r="D14" t="n">
-        <v>175.3384438785318</v>
+        <v>174.7781167186194</v>
       </c>
       <c r="E14" t="n">
         <v>150</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B550 AORUS ELITE AX V2</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -950,13 +994,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C15" t="n">
         <v>68.70490566049033</v>
       </c>
       <c r="D15" t="n">
-        <v>180.708437353699</v>
+        <v>170.1708408236515</v>
       </c>
       <c r="E15" t="n">
         <v>148</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B550 AORUS ELITE AX V2</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -986,13 +1033,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C16" t="n">
         <v>67.76685408569368</v>
       </c>
       <c r="D16" t="n">
-        <v>174.0202767579258</v>
+        <v>177.8503998306206</v>
       </c>
       <c r="E16" t="n">
         <v>149</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B550 AORUS ELITE AX V2</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1022,13 +1072,13 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C17" t="n">
         <v>56.2330581016335</v>
       </c>
       <c r="D17" t="n">
-        <v>159.3482525267142</v>
+        <v>165.9551188389923</v>
       </c>
       <c r="E17" t="n">
         <v>152</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B550 AORUS ELITE AX V2</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1058,13 +1111,13 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C18" t="n">
         <v>44.94007757255309</v>
       </c>
       <c r="D18" t="n">
-        <v>149.8897988634646</v>
+        <v>152.2115087176013</v>
       </c>
       <c r="E18" t="n">
         <v>140</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B550 AORUS ELITE AX V2</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1094,13 +1150,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" t="n">
         <v>41.85122208241668</v>
       </c>
       <c r="D19" t="n">
-        <v>151.1356911305424</v>
+        <v>147.8774463805389</v>
       </c>
       <c r="E19" t="n">
         <v>137</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B550 AORUS ELITE AX V2</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1130,13 +1189,13 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C20" t="n">
         <v>43.63809196799492</v>
       </c>
       <c r="D20" t="n">
-        <v>143.9517784233443</v>
+        <v>148.7289972230686</v>
       </c>
       <c r="E20" t="n">
         <v>144</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B550 AORUS ELITE AX V2</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1166,13 +1228,13 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C21" t="n">
         <v>42.36242236995251</v>
       </c>
       <c r="D21" t="n">
-        <v>156.2662923303326</v>
+        <v>146.0177218044815</v>
       </c>
       <c r="E21" t="n">
         <v>132</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B550 AORUS ELITE AX V2</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1837</t>
+          <t>1840</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>944</t>
+          <t>948</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>553</t>
         </is>
       </c>
     </row>
